--- a/medicine/Mort/Diablotin/Diablotin.xlsx
+++ b/medicine/Mort/Diablotin/Diablotin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un diablotin est, dans la mythologie, le folklore et plusieurs traditions, une créature démoniaque de petite taille. Ils sont décrits comme de petites êtres espiègles agités et de taille réduite plutôt que de sérieuses menaces, et occupent une position inférieure dans la hiérarchie de la démonologie. Les assistants du Diable sont parfois nommés des « diablotins ».
 </t>
@@ -511,12 +523,11 @@
           <t>Folklore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains diablotins peuvent se tourner vers de bonnes actions, car ils sont si seuls qu'ils feraient à peu près n'importe quoi, même les bonnes actions, pour avoir des amis.
-Origines
-Le demi-dieu Pan, mentionné dans la mythologie grecque, possède quelques points communs avec les diablotins mais ne peut pas être considéré comme leur ancêtre, le diablotin étant vraisemblablement issu du folklore germanique et slave plutôt que des traditions grecques. Toutefois, les diablotins sont parfois décrits comme des joueurs de musique susceptibles d'être séduits par une promesse d'aide, et capables de « faire le bien » de cette manière, bien que des « tours » ou des « malices » puissent intervenir.
-Diablotin est aussi le nom donné aux familiers qui servaient les sorcières durant le Moyen Âge. Ils étaient généralement gardés sous le contrôle de ces dernières grâce à des objets magiques comme des gemmes, et invoqués pour divers services magiques. L'alchimiste Paracelse était ainsi censé avoir un diablotin à son service.
 </t>
         </is>
       </c>
@@ -542,10 +553,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Folklore</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le demi-dieu Pan, mentionné dans la mythologie grecque, possède quelques points communs avec les diablotins mais ne peut pas être considéré comme leur ancêtre, le diablotin étant vraisemblablement issu du folklore germanique et slave plutôt que des traditions grecques. Toutefois, les diablotins sont parfois décrits comme des joueurs de musique susceptibles d'être séduits par une promesse d'aide, et capables de « faire le bien » de cette manière, bien que des « tours » ou des « malices » puissent intervenir.
+Diablotin est aussi le nom donné aux familiers qui servaient les sorcières durant le Moyen Âge. Ils étaient généralement gardés sous le contrôle de ces dernières grâce à des objets magiques comme des gemmes, et invoqués pour divers services magiques. L'alchimiste Paracelse était ainsi censé avoir un diablotin à son service.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diablotin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diablotin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans les comic books de DC Comics, les diablotins sont des créatures extra-dimensionnelles.
 Dans le jeu de rôle Donjons et Dragons, le diablotin fait partie du manuel des monstres.
